--- a/team_specific_matrix/Northwest (WA)_A.xlsx
+++ b/team_specific_matrix/Northwest (WA)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.2459016393442623</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="P19">
         <v>0</v>
